--- a/intervalos_ndt_5.86.xlsx
+++ b/intervalos_ndt_5.86.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl_atual\simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C1F89-7FFE-4C9E-9EF6-76DF531931EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04FEAC-7BF7-4B61-A11F-6C8F619244A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="5.86 x 6.22" sheetId="1" r:id="rId1"/>
@@ -9237,15 +9237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9277,16 +9277,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9318,16 +9318,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9359,16 +9359,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221457</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9406,10 +9406,10 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9736,7 +9736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45111533-F0D8-4E2A-AC2C-0F519570E293}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -10573,7 +10573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93796860-76A4-4061-AEA6-06B78277E322}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11729,7 +11729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7747BC58-7A05-4AFD-AFFF-668AA696D33C}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -12581,7 +12581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4FB31-C037-48D2-934E-1FB80DE4CDA0}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
@@ -13434,8 +13434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A77DB-ED1E-4FD8-912B-B7724CE6C6D1}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B105"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
